--- a/r5-AGES-MedicinalProduct-review/StructureDefinition-at-medprod-marketingregulatedauthorization.xlsx
+++ b/r5-AGES-MedicinalProduct-review/StructureDefinition-at-medprod-marketingregulatedauthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T10:36:09+00:00</t>
+    <t>2024-05-17T12:22:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -467,7 +467,7 @@
     <t>RegulatedAuthorization.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {https://www.ages.at/fhir/medicinalproduct/StructureDefinition/Identifier-eMed}
+    <t xml:space="preserve">Identifier {https://www.ages.at/fhir/medicinalproduct/StructureDefinition/at-medprod-identifier}
 </t>
   </si>
   <si>

--- a/r5-AGES-MedicinalProduct-review/StructureDefinition-at-medprod-marketingregulatedauthorization.xlsx
+++ b/r5-AGES-MedicinalProduct-review/StructureDefinition-at-medprod-marketingregulatedauthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T12:22:27+00:00</t>
+    <t>2024-05-17T13:17:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -699,7 +699,7 @@
     <t>RegulatedAuthorization.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {https://www.ages.at/fhir/medicinalproduct/StructureDefinition/RefTermCodeableConcept}
+    <t xml:space="preserve">CodeableConcept {https://www.ages.at/fhir/medicinalproduct/StructureDefinition/at-medprod-codeableconcept}
 </t>
   </si>
   <si>
